--- a/xls/square_high_un_16_tri3_23.xlsx
+++ b/xls/square_high_un_16_tri3_23.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-2.2486722257672875</v>
+        <v>-0.00024621059297093984</v>
       </c>
       <c r="J23">
-        <v>-1.8234945317548448</v>
+        <v>-0.0002709994234310782</v>
       </c>
       <c r="K23">
-        <v>0.7482201039329476</v>
+        <v>2.6893938100725365</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-1.4995085845443974</v>
+        <v>-0.0001135986885902009</v>
       </c>
       <c r="J24">
-        <v>-1.230463811400258</v>
+        <v>-0.00011160936012025714</v>
       </c>
       <c r="K24">
-        <v>1.4924997207156991</v>
+        <v>2.4644579618797717</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-0.4895899054327192</v>
+        <v>-4.385485990955901e-5</v>
       </c>
       <c r="J25">
-        <v>-0.4316132459567574</v>
+        <v>-4.250799543730533e-5</v>
       </c>
       <c r="K25">
-        <v>2.4822605942958944</v>
+        <v>2.2527191802964186</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-0.000854387801103092</v>
+        <v>-2.255426486619098e-5</v>
       </c>
       <c r="J26">
-        <v>-0.000766599349312125</v>
+        <v>-2.5869632420102034e-5</v>
       </c>
       <c r="K26">
-        <v>2.8609076278033214</v>
+        <v>2.1873822839657673</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-0.00017816847331869203</v>
+        <v>-2.232132936700344e-5</v>
       </c>
       <c r="J27">
-        <v>-0.00016735447333344228</v>
+        <v>-2.1648352926789197e-5</v>
       </c>
       <c r="K27">
-        <v>2.5467587798284224</v>
+        <v>2.1092416675223884</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-0.0001019932471451416</v>
+        <v>-2.0130354464874267e-5</v>
       </c>
       <c r="J28">
-        <v>-9.355453007724943e-5</v>
+        <v>-1.8303099916006676e-5</v>
       </c>
       <c r="K28">
-        <v>2.410289711751674</v>
+        <v>2.052947703416606</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.8104559651131406e-5</v>
+        <v>-1.7040739181168687e-5</v>
       </c>
       <c r="J29">
-        <v>-4.4575512706218924e-5</v>
+        <v>-1.647253701667263e-5</v>
       </c>
       <c r="K29">
-        <v>2.2575916421426943</v>
+        <v>2.0464231478961126</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-3.5594543528845106e-5</v>
+        <v>-9.598492062918559e-6</v>
       </c>
       <c r="J30">
-        <v>-3.385458998984677e-5</v>
+        <v>-9.734591946851969e-6</v>
       </c>
       <c r="K30">
-        <v>2.202711259522182</v>
+        <v>1.9445569114361159</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-2.1587040010887556e-5</v>
+        <v>-9.108314197348413e-6</v>
       </c>
       <c r="J31">
-        <v>-2.103724920279912e-5</v>
+        <v>-8.839900564570646e-6</v>
       </c>
       <c r="K31">
-        <v>2.1060361896984268</v>
+        <v>1.9127763778826063</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-1.7845268492350548e-5</v>
+        <v>-7.808704455018755e-6</v>
       </c>
       <c r="J32">
-        <v>-1.6869279200756685e-5</v>
+        <v>-7.562726103833976e-6</v>
       </c>
       <c r="K32">
-        <v>2.051083846233725</v>
+        <v>1.878288838537557</v>
       </c>
     </row>
   </sheetData>
